--- a/assets/downloadables/DCF_Form_5.xlsx
+++ b/assets/downloadables/DCF_Form_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Compressed\DATA CAPTURE FORMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data_Capture_Forms\DATA CAPTURE FORMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="form5" sheetId="1" r:id="rId1"/>
+    <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>FORM 5 - Matching Grant Implementation Tracker</t>
   </si>
@@ -123,6 +124,36 @@
   </si>
   <si>
     <t>If 'Product Investments' or 'Expansion' is selected in the 'Type of Investment' field, fill out sections 11-21. If 'Product Investments' and 'Rehabilitation' or 'Expansion' and 'Rehabilitation' are selected, fill out section 11-29</t>
+  </si>
+  <si>
+    <t>Input field</t>
+  </si>
+  <si>
+    <t>Guideline</t>
+  </si>
+  <si>
+    <t>DIP name format: Region_DIP Name (example: R8_SC Global)</t>
+  </si>
+  <si>
+    <t>Provide full name of FO/MSME</t>
+  </si>
+  <si>
+    <t>Refers to the FO members who will receive intervention thru Matching Grants</t>
+  </si>
+  <si>
+    <t>Date Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>Type of Investment</t>
+  </si>
+  <si>
+    <t>(Productive Investments, Expansion, Rehabilitation)
+If 'Product Investments' or 'Expansion' is selected in the 'Type of Investment' field, fill out sections 11-21. 
+If 'Product Investments' and 'Rehabilitation' or 'Expansion' and 'Rehabilitation' are selected, fill out section 11-29
+If 'Rehabilitation' is selected in the 'Type of Investment' field, fill out sections 22-29</t>
   </si>
 </sst>
 </file>
@@ -162,7 +193,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +230,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -322,11 +359,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,21 +429,75 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -373,36 +505,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,35 +863,35 @@
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="28"/>
     </row>
     <row r="3" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -807,41 +909,41 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="13"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="32"/>
       <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="21" t="s">
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
     </row>
     <row r="4" spans="1:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -889,12 +991,12 @@
       <c r="S4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="20" t="s">
+      <c r="U4" s="35"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="10" t="s">
         <v>26</v>
       </c>
       <c r="X4" s="4" t="s">
@@ -903,11 +1005,11 @@
       <c r="Y4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="11"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36"/>
       <c r="AC4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1565,15 +1667,115 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:AD2"/>
     <mergeCell ref="W3:AD3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="M3:V3"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="A1:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75" customWidth="1"/>
+    <col min="2" max="2" width="100.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/downloadables/DCF_Form_5.xlsx
+++ b/assets/downloadables/DCF_Form_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data_Capture_Forms\DATA CAPTURE FORMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dti_web_app_v2\assets\downloadables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -193,7 +193,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -404,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -505,6 +511,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -795,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,94 +1071,94 @@
       <c r="AD5" s="3"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="40">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="40">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="40">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="40">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="40">
         <v>4</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="40">
         <v>5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="40">
         <v>6</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="40">
         <v>7</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="40">
         <v>8</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="40">
         <v>9</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="40">
         <v>10</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="40">
         <v>11</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="40">
         <v>12</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="40">
         <v>13</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="40">
         <v>14</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="40">
         <v>15</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="40">
         <v>16</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="40">
         <v>17</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="40">
         <v>18</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="40">
         <v>19</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="40">
         <v>20</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="40">
         <v>21</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="40">
         <v>22</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="40">
         <v>23</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="40">
         <v>24</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="40">
         <v>25</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="40">
         <v>26</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="40">
         <v>27</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="40">
         <v>28</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" s="40">
         <v>29</v>
       </c>
     </row>

--- a/assets/downloadables/DCF_Form_5.xlsx
+++ b/assets/downloadables/DCF_Form_5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dti_web_app_v2\assets\downloadables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\update template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>FORM 5 - Matching Grant Implementation Tracker</t>
   </si>
@@ -154,13 +154,22 @@
 If 'Product Investments' or 'Expansion' is selected in the 'Type of Investment' field, fill out sections 11-21. 
 If 'Product Investments' and 'Rehabilitation' or 'Expansion' and 'Rehabilitation' are selected, fill out section 11-29
 If 'Rehabilitation' is selected in the 'Type of Investment' field, fill out sections 22-29</t>
+  </si>
+  <si>
+    <t>Total number of FO members by Gender (5-6)</t>
+  </si>
+  <si>
+    <t>Total number of FO members by sectoral group (7-10)</t>
+  </si>
+  <si>
+    <t>Input data using only number values. Avoid using any special characters or letters.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +200,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -410,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -462,6 +478,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -513,8 +532,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,70 +858,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="26"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="28"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29"/>
     </row>
     <row r="3" spans="1:30" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -918,41 +939,41 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="32"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="29" t="s">
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
     </row>
     <row r="4" spans="1:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -1000,11 +1021,11 @@
       <c r="S4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="37"/>
       <c r="W4" s="10" t="s">
         <v>26</v>
       </c>
@@ -1014,11 +1035,11 @@
       <c r="Y4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="Z4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="37"/>
       <c r="AC4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1071,94 +1092,94 @@
       <c r="AD5" s="3"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="23">
         <v>0</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="23">
         <v>1</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="23">
         <v>2</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="23">
         <v>4</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="23">
         <v>5</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="23">
         <v>6</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="23">
         <v>7</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="23">
         <v>8</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="23">
         <v>9</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="23">
         <v>10</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="23">
         <v>11</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="23">
         <v>12</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="23">
         <v>13</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="23">
         <v>14</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="23">
         <v>15</v>
       </c>
-      <c r="Q6" s="40">
+      <c r="Q6" s="23">
         <v>16</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="23">
         <v>17</v>
       </c>
-      <c r="S6" s="40">
+      <c r="S6" s="23">
         <v>18</v>
       </c>
-      <c r="T6" s="40">
+      <c r="T6" s="23">
         <v>19</v>
       </c>
-      <c r="U6" s="40">
+      <c r="U6" s="23">
         <v>20</v>
       </c>
-      <c r="V6" s="40">
+      <c r="V6" s="23">
         <v>21</v>
       </c>
-      <c r="W6" s="40">
+      <c r="W6" s="23">
         <v>22</v>
       </c>
-      <c r="X6" s="40">
+      <c r="X6" s="23">
         <v>23</v>
       </c>
-      <c r="Y6" s="40">
+      <c r="Y6" s="23">
         <v>24</v>
       </c>
-      <c r="Z6" s="40">
+      <c r="Z6" s="23">
         <v>25</v>
       </c>
-      <c r="AA6" s="40">
+      <c r="AA6" s="23">
         <v>26</v>
       </c>
-      <c r="AB6" s="40">
+      <c r="AB6" s="23">
         <v>27</v>
       </c>
-      <c r="AC6" s="40">
+      <c r="AC6" s="23">
         <v>28</v>
       </c>
-      <c r="AD6" s="40">
+      <c r="AD6" s="23">
         <v>29</v>
       </c>
     </row>
@@ -1691,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,53 +1756,69 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B7" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B8" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
